--- a/Assets/ExcelTools/xlsx/特效.xlsx
+++ b/Assets/ExcelTools/xlsx/特效.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="720" windowWidth="28760" windowHeight="16900"/>
+    <workbookView xWindow="820" yWindow="8580" windowWidth="24940" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="GameEffectData" sheetId="1" r:id="rId1"/>
@@ -81,35 +81,35 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Prefabs/Effect/InGameStepEffect</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>step爆炸效果</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>主角加速特效</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Effect/InGameRoleSpeedEffect</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>磁铁特效</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Effect/InGameMagnetEffect</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Effect/InGameOverLineEffect</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束线特效</t>
+    <t>主角特效black</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>主角特效white</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Effect/InGameRoleEffectBlack</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Effect/InGameRoleEffectWhite</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>step特效 black</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>step特效white</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Effect/InGameStepEffectBlack</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Effect/InGameStepEffectWhite</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -653,7 +653,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -719,7 +719,7 @@
         <v>60010010</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -728,10 +728,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -742,10 +742,10 @@
         <v>60010011</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -754,7 +754,7 @@
         <v>17</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -768,16 +768,16 @@
         <v>18</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>60010013</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -797,10 +797,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>

--- a/Assets/ExcelTools/xlsx/特效.xlsx
+++ b/Assets/ExcelTools/xlsx/特效.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="8580" windowWidth="24940" windowHeight="15600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="GameEffectData" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>id(int)</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -110,6 +110,14 @@
   </si>
   <si>
     <t>Prefabs/Effect/InGameStepEffectWhite</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>combo特效</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Effect/InGameComboEffect</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -650,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -806,6 +814,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>60010014</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="1">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/ExcelTools/xlsx/特效.xlsx
+++ b/Assets/ExcelTools/xlsx/特效.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>id(int)</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -118,6 +118,14 @@
   </si>
   <si>
     <t>Prefabs/Effect/InGameComboEffect</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>combo飞特效</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Effect/InGameComboFlyEffect</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -658,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -837,6 +845,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>60010015</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
